--- a/biology/Médecine/Frank_Atherton/Frank_Atherton.xlsx
+++ b/biology/Médecine/Frank_Atherton/Frank_Atherton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank Atherton est un médecin britannique qui depuis 2016 est médecin-chef du Pays de Galles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Atherton est un médecin britannique qui depuis 2016 est médecin-chef du Pays de Galles.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank Atherton est originaire du Lancashire, en Angleterre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Atherton est originaire du Lancashire, en Angleterre.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atherton était auparavant médecin-chef adjoint au ministère de la Santé et du Bien-être de la Nouvelle-Écosse, au Canada, directeur de la santé publique dans le nord du Lancashire et président de l'Association britannique des directeurs de la santé publique[3],[2]. Il a été nommé médecin-chef du Pays de Galles en avril 2016, à la suite du départ à la retraite de la précédente titulaire, le Dr Ruth Hussey[2].
-Pandémie de Covid-19
-Pendant la pandémie de COVID-19 au Pays de Galles, Frank Atherton a déclaré qu'il tentait de réduire le risque de transmission en prenant « toutes les mesures appropriées »[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atherton était auparavant médecin-chef adjoint au ministère de la Santé et du Bien-être de la Nouvelle-Écosse, au Canada, directeur de la santé publique dans le nord du Lancashire et président de l'Association britannique des directeurs de la santé publique,. Il a été nommé médecin-chef du Pays de Galles en avril 2016, à la suite du départ à la retraite de la précédente titulaire, le Dr Ruth Hussey.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frank_Atherton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Atherton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pandémie de Covid-19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la pandémie de COVID-19 au Pays de Galles, Frank Atherton a déclaré qu'il tentait de réduire le risque de transmission en prenant « toutes les mesures appropriées ».
 </t>
         </is>
       </c>
